--- a/40. What_if_Analysis_Two_Way_Data_Table.xlsx
+++ b/40. What_if_Analysis_Two_Way_Data_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C68234-F086-4633-90F9-1B97F25FBFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81021D-5949-486F-925A-860B106A3EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{02BFB518-2607-41DD-9C7B-CF014CDE79D6}"/>
   </bookViews>

--- a/40. What_if_Analysis_Two_Way_Data_Table.xlsx
+++ b/40. What_if_Analysis_Two_Way_Data_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81021D-5949-486F-925A-860B106A3EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E73087-6BE2-4ADB-A4C1-68B856C4E761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{02BFB518-2607-41DD-9C7B-CF014CDE79D6}"/>
   </bookViews>
@@ -217,14 +217,17 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,9 +236,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -852,24 +852,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>24</v>
       </c>
     </row>
@@ -880,10 +880,10 @@
       <c r="B4">
         <v>30</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1000</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>23</v>
       </c>
     </row>
@@ -894,81 +894,81 @@
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2000</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>22.75</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>3000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>21.75</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>4000</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>21.3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>3500</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f>B22</f>
         <v>24800</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>500</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>1000</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>1500</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>2000</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>2500</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>3000</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>3500</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>4000</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>4500</v>
       </c>
     </row>
@@ -976,77 +976,77 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>4000</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>500</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f t="dataTable" ref="H13:P21" dt2D="1" dtr="1" r1="B12" r2="B13"/>
         <v>3000</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>3000</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>3000</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>3000</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>3000</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>3000</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <v>3000</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="4">
         <v>3000</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F14" s="10"/>
-      <c r="G14" s="5">
+      <c r="F14" s="7"/>
+      <c r="G14" s="4">
         <v>1000</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>-3000</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>7000</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>7000</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>7000</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>7000</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>7000</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <v>7000</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <v>7000</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
         <v>7000</v>
       </c>
     </row>
@@ -1058,105 +1058,105 @@
         <f>MAX(B13-B12,0)</f>
         <v>500</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B15)</f>
         <v>=MAX(B13-B12,0)</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="5">
+      <c r="F15" s="7"/>
+      <c r="G15" s="4">
         <v>1500</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>-9500</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>500</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>10500</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>10500</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>10500</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>10500</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>10500</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="4">
         <v>10500</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="4">
         <v>10500</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F16" s="10"/>
-      <c r="G16" s="5">
+      <c r="F16" s="7"/>
+      <c r="G16" s="4">
         <v>2000</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>-15500</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>-5500</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>4500</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>14500</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>14500</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>14500</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>14500</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="4">
         <v>14500</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="4">
         <v>14500</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F17" s="10"/>
-      <c r="G17" s="5">
+      <c r="F17" s="7"/>
+      <c r="G17" s="4">
         <v>2500</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>-21875</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>-11875</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>-1875</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>8125</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>18125</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>18125</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <v>18125</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="4">
         <v>18125</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="4">
         <v>18125</v>
       </c>
     </row>
@@ -1168,72 +1168,72 @@
         <f>VLOOKUP(B13,D2:E7,2,TRUE)*B13</f>
         <v>85200</v>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B18)</f>
         <v>=VLOOKUP(B13,D2:E7,2,TRUE)*B13</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="5">
+      <c r="F18" s="7"/>
+      <c r="G18" s="4">
         <v>3000</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>-25250</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>-15250</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>-5250</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>4750</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>14750</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>24750</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <v>24750</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <v>24750</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="4">
         <v>24750</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F19" s="10"/>
-      <c r="G19" s="5">
+      <c r="F19" s="7"/>
+      <c r="G19" s="4">
         <v>3500</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>-31125</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>-21125</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>-11125</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>-1125</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>8875</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>18875</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <v>28875</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="4">
         <v>28875</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="4">
         <v>28875</v>
       </c>
     </row>
@@ -1245,84 +1245,84 @@
         <f>MIN(B12,B13)*B4+(B15)*B5</f>
         <v>110000</v>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C20" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=MIN(B12,B13)*B4+(B15)*B5</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="5">
+      <c r="F20" s="7"/>
+      <c r="G20" s="4">
         <v>4000</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>-35200</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>-25200</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>-15200</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>-5200</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>4800</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <v>14800</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="4">
         <v>24800</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="4">
         <v>34800</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="4">
         <v>34800</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F21" s="10"/>
-      <c r="G21" s="5">
+      <c r="F21" s="7"/>
+      <c r="G21" s="4">
         <v>4500</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>-40850</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>-30850</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>-20850</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>-10850</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>-850</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <v>9150</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <v>19150</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="4">
         <v>29150</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="4">
         <v>39150</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <f>B20-B18</f>
         <v>24800</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B22)</f>
         <v>=B20-B18</v>
       </c>
@@ -1366,14 +1366,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7D998D-A4FF-4FAC-A909-B7A403E966B5}">
-  <dimension ref="A1"/>
+  <dimension ref="G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="15" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
